--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="E2" t="n">
-        <v>1.327868852459016</v>
+        <v>2.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>PHO</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
       <c r="D3" t="n">
-        <v>1.555555555555556</v>
+        <v>2.45</v>
       </c>
       <c r="E3" t="n">
-        <v>2.5</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,47 +519,47 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0625</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.24390243902439</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="E5" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,47 +567,47 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.24</v>
+        <v>1.892857142857143</v>
       </c>
       <c r="E6" t="n">
-        <v>1.675675675675676</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E7" t="n">
-        <v>1.555555555555556</v>
+        <v>2.95</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -615,47 +615,47 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.235294117647059</v>
+        <v>2.36</v>
       </c>
       <c r="E8" t="n">
-        <v>4.3</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="E9" t="n">
-        <v>1.111111111111111</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -672,16 +672,64 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="E10" t="n">
-        <v>1.212765957446809</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.675675675675676</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,71 +471,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.458715596330275</v>
+        <v>2.9</v>
       </c>
       <c r="E2" t="n">
-        <v>2.8</v>
+        <v>1.434782608695652</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.45</v>
+        <v>5.55</v>
       </c>
       <c r="E3" t="n">
-        <v>1.571428571428571</v>
+        <v>1.16</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.833333333333333</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,193 +543,25 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45347</v>
+        <v>45348</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.153846153846154</v>
+        <v>3.1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.7</v>
+        <v>1.387596899224806</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.892857142857143</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.925925925925926</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.420168067226891</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.869565217391304</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.952380952380952</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.37037037037037</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.675675675675676</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,55 +471,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.9</v>
+        <v>1.16</v>
       </c>
       <c r="E2" t="n">
-        <v>1.434782608695652</v>
+        <v>5.55</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.55</v>
+        <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.16</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -528,41 +528,209 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.769230769230769</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.1</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="E5" t="n">
-        <v>1.387596899224806</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.769230769230769</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.704225352112676</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.095238095238095</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="E2" t="n">
-        <v>5.55</v>
+        <v>2.3</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,64 +495,64 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="E3" t="n">
-        <v>1.555555555555556</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253164556962025</v>
+        <v>2.7</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.769230769230769</v>
+        <v>1.335570469798658</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,146 +591,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.704225352112676</v>
+        <v>2.36</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.095238095238095</v>
-      </c>
-      <c r="F8" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MIA</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1.359712230215827</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.645161290322581</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.420168067226891</v>
+        <v>1.4</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.48780487804878</v>
+        <v>1.540540540540541</v>
       </c>
       <c r="E4" t="n">
-        <v>2.7</v>
+        <v>2.54</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,73 +543,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.25</v>
+        <v>2.02</v>
       </c>
       <c r="E5" t="n">
-        <v>1.133333333333333</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>1.16</v>
       </c>
       <c r="E6" t="n">
-        <v>1.335570469798658</v>
+        <v>5.55</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.266666666666667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.505050505050505</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>LAL</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.24390243902439</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.142857142857143</v>
+        <v>5.4</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.05</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="E3" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,47 +519,47 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.540540540540541</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
-        <v>2.54</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.02</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="E5" t="n">
-        <v>1.819672131147541</v>
+        <v>2.3</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.16</v>
+        <v>2.7</v>
       </c>
       <c r="E6" t="n">
-        <v>5.55</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,47 +591,47 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>1.266666666666667</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.64</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="E8" t="n">
-        <v>1.505050505050505</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -639,25 +639,49 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.555555555555556</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>WAS</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.24390243902439</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.4</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="E2" t="n">
-        <v>1.166666666666667</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.253164556962025</v>
+        <v>3.35</v>
       </c>
       <c r="E3" t="n">
-        <v>4.1</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253164556962025</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.645161290322581</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="E5" t="n">
-        <v>2.3</v>
+        <v>1.909090909090909</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,121 +567,25 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45352</v>
+        <v>45353</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.48780487804878</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.408163265306122</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.952380952380952</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.869565217391304</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.555555555555556</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,122 +471,194 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.869565217391304</v>
+        <v>2.14</v>
       </c>
       <c r="E2" t="n">
-        <v>1.952380952380952</v>
+        <v>1.689655172413793</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.35</v>
+        <v>4.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.344827586206897</v>
+        <v>1.212765957446809</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="E4" t="n">
-        <v>1.704225352112676</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.909090909090909</v>
+        <v>5.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1.909090909090909</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45353</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.227272727272727</v>
+        <v>1.335570469798658</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.408163265306122</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.14</v>
+        <v>4.3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.689655172413793</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,35 +495,35 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.6</v>
+        <v>2.64</v>
       </c>
       <c r="E3" t="n">
-        <v>1.212765957446809</v>
+        <v>1.505050505050505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,34 +532,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.14</v>
+        <v>8.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.740740740740741</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.4</v>
+        <v>2.85</v>
       </c>
       <c r="E5" t="n">
-        <v>1.166666666666667</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="E6" t="n">
-        <v>1.335570469798658</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,73 +591,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45354</v>
+        <v>45355</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.05</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="E7" t="n">
-        <v>1.4</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.408163265306122</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.3</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>1.235294117647059</v>
+        <v>3.95</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.64</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E3" t="n">
-        <v>1.505050505050505</v>
+        <v>3.7</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,47 +519,47 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.5</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="E4" t="n">
-        <v>1.083333333333333</v>
+        <v>4.3</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.85</v>
+        <v>5.55</v>
       </c>
       <c r="E5" t="n">
-        <v>1.444444444444444</v>
+        <v>1.16</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,50 +567,122 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.95</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="E6" t="n">
-        <v>1.420168067226891</v>
+        <v>1.892857142857143</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.980392156862745</v>
+        <v>2.24</v>
       </c>
       <c r="E7" t="n">
-        <v>1.847457627118644</v>
+        <v>1.675675675675676</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.307692307692308</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.540540540540541</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.227272727272727</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -480,14 +480,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.266666666666667</v>
+        <v>1.350877192982456</v>
       </c>
       <c r="E2" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.294117647058824</v>
+        <v>1.387596899224806</v>
       </c>
       <c r="E3" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,47 +519,47 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.235294117647059</v>
+        <v>2.8</v>
       </c>
       <c r="E4" t="n">
-        <v>4.3</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.55</v>
+        <v>2.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1.16</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,47 +567,47 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.925925925925926</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E6" t="n">
-        <v>1.892857142857143</v>
+        <v>2.42</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="E7" t="n">
-        <v>1.675675675675676</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.307692307692308</v>
+        <v>7.5</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -639,49 +639,25 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2.54</v>
+        <v>2.14</v>
       </c>
       <c r="E9" t="n">
-        <v>1.540540540540541</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.227272727272727</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.350877192982456</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3.3</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.387596899224806</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E3" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="E4" t="n">
-        <v>1.458715596330275</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="E5" t="n">
-        <v>1.704225352112676</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -567,35 +567,35 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.588235294117647</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="E6" t="n">
-        <v>2.42</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -604,60 +604,36 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.36</v>
+        <v>3.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.617283950617284</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.1</v>
+        <v>5.25</v>
       </c>
       <c r="E8" t="n">
-        <v>7.5</v>
+        <v>1.173913043478261</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,170 +471,194 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="E2" t="n">
-        <v>1.833333333333333</v>
+        <v>3.45</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.769230769230769</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.1</v>
-      </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.6</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="E4" t="n">
-        <v>1.520833333333333</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.8</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.952380952380952</v>
+        <v>3.85</v>
       </c>
       <c r="E6" t="n">
-        <v>1.869565217391304</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.7</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="E7" t="n">
-        <v>1.294117647058824</v>
+        <v>2.2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.25</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E8" t="n">
-        <v>1.173913043478261</v>
+        <v>2.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.444444444444444</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,71 +471,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.327868852459016</v>
+        <v>3.2</v>
       </c>
       <c r="E2" t="n">
-        <v>3.45</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="E3" t="n">
-        <v>1.769230769230769</v>
+        <v>3.45</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.847457627118644</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E4" t="n">
-        <v>1.980392156862745</v>
+        <v>2.95</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.952380952380952</v>
+        <v>1.458715596330275</v>
       </c>
       <c r="E5" t="n">
-        <v>1.869565217391304</v>
+        <v>2.8</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>1.277777777777778</v>
+        <v>1.212765957446809</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,73 +591,49 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.704225352112676</v>
+        <v>6.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.769230769230769</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="E8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.444444444444444</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.37037037037037</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.327868852459016</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E3" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.420168067226891</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="E4" t="n">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.458715596330275</v>
+        <v>1.540540540540541</v>
       </c>
       <c r="E5" t="n">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>8.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.212765957446809</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,49 +591,25 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.5</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="E7" t="n">
-        <v>1.125</v>
+        <v>4.4</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45360</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.704225352112676</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.645161290322581</v>
+        <v>1.387596899224806</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.420168067226891</v>
+        <v>3.3</v>
       </c>
       <c r="E3" t="n">
-        <v>2.95</v>
+        <v>1.350877192982456</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.571428571428571</v>
+        <v>1.769230769230769</v>
       </c>
       <c r="E4" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,11 +543,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.540540540540541</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E5" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,50 +567,74 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="E6" t="n">
-        <v>1.083333333333333</v>
+        <v>3.05</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.227272727272727</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="E2" t="n">
-        <v>1.387596899224806</v>
+        <v>1.359712230215827</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1.350877192982456</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.769230769230769</v>
+        <v>1.617283950617284</v>
       </c>
       <c r="E4" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,71 +543,71 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.588235294117647</v>
+        <v>2.4</v>
       </c>
       <c r="E5" t="n">
-        <v>2.42</v>
+        <v>1.602409638554217</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="E6" t="n">
-        <v>3.05</v>
+        <v>1.37037037037037</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.704225352112676</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -635,6 +635,54 @@
       </c>
       <c r="F8" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.740740740740741</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.617283950617284</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,71 +471,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="E2" t="n">
-        <v>1.359712230215827</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="E3" t="n">
-        <v>1.645161290322581</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.617283950617284</v>
+        <v>3.6</v>
       </c>
       <c r="E4" t="n">
-        <v>2.36</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,145 +543,73 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
       <c r="D5" t="n">
-        <v>2.4</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="E5" t="n">
-        <v>1.602409638554217</v>
+        <v>2.95</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.37037037037037</v>
+        <v>1.186915887850467</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.833333333333333</v>
+        <v>1.186915887850467</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.359712230215827</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="F10" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -471,79 +471,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.85</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E2" t="n">
-        <v>1.444444444444444</v>
+        <v>3.7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.6</v>
+        <v>1.21978021978022</v>
       </c>
       <c r="E3" t="n">
-        <v>1.307692307692308</v>
+        <v>4.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3.6</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="E4" t="n">
-        <v>1.307692307692308</v>
+        <v>3.7</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -552,14 +552,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.420168067226891</v>
+        <v>3.35</v>
       </c>
       <c r="E5" t="n">
-        <v>2.95</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,23 +567,23 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>1.186915887850467</v>
+      </c>
+      <c r="E6" t="n">
         <v>5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.186915887850467</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,26 +591,26 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.186915887850467</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>2.14</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.294117647058824</v>
+        <v>1.505050505050505</v>
       </c>
       <c r="E2" t="n">
-        <v>3.7</v>
+        <v>2.64</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.21978021978022</v>
+        <v>4.1</v>
       </c>
       <c r="E3" t="n">
-        <v>4.5</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.294117647058824</v>
+        <v>5.1</v>
       </c>
       <c r="E4" t="n">
-        <v>3.7</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,11 +543,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -556,34 +556,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.35</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>1.344827586206897</v>
+        <v>1.1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.186915887850467</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,25 +591,97 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.212765957446809</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.769230769230769</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1.740740740740741</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="D9" t="n">
+        <v>1.294117647058824</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.617283950617284</v>
+      </c>
+      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.505050505050505</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="E2" t="n">
-        <v>2.64</v>
+        <v>4.4</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.1</v>
+        <v>2.14</v>
       </c>
       <c r="E3" t="n">
-        <v>1.253164556962025</v>
+        <v>1.740740740740741</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="E4" t="n">
-        <v>1.181818181818182</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,71 +543,71 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>1.16</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1</v>
+        <v>5.55</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>OKC</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>4.8</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="E7" t="n">
-        <v>1.212765957446809</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -615,23 +615,23 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="E8" t="n">
-        <v>1.769230769230769</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -639,50 +639,26 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45367</v>
+        <v>45371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.294117647058824</v>
+        <v>1.125</v>
       </c>
       <c r="E9" t="n">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.617283950617284</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.227272727272727</v>
+        <v>1.16</v>
       </c>
       <c r="E2" t="n">
-        <v>4.4</v>
+        <v>5.55</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,47 +495,47 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.14</v>
+        <v>1.675675675675676</v>
       </c>
       <c r="E3" t="n">
-        <v>1.740740740740741</v>
+        <v>2.24</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>MIL</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
       <c r="D4" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1.192307692307692</v>
+        <v>1.227272727272727</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,23 +543,23 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>2.42</v>
       </c>
       <c r="E5" t="n">
-        <v>5.55</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -576,14 +576,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>1.074074074074074</v>
+        <v>1.1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -591,23 +591,23 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="E7" t="n">
-        <v>1.166666666666667</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -615,11 +615,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -628,37 +628,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E8" t="n">
-        <v>1.24390243902439</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45371</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.16</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>5.55</v>
+        <v>8.5</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.675675675675676</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="E3" t="n">
-        <v>2.24</v>
+        <v>10.5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>1.227272727272727</v>
+        <v>1.420168067226891</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,97 +543,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="E5" t="n">
-        <v>1.588235294117647</v>
+        <v>1.344827586206897</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.24390243902439</v>
+        <v>1.48780487804878</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>1.235294117647059</v>
+        <v>7.5</v>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.335570469798658</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.083333333333333</v>
+        <v>3.45</v>
       </c>
       <c r="E2" t="n">
-        <v>8.5</v>
+        <v>1.327868852459016</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.060606060606061</v>
+        <v>2.3</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="E4" t="n">
-        <v>1.420168067226891</v>
+        <v>1.253164556962025</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -543,121 +543,49 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.35</v>
+        <v>1.212765957446809</v>
       </c>
       <c r="E5" t="n">
-        <v>1.344827586206897</v>
+        <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45373</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.3</v>
+        <v>2.85</v>
       </c>
       <c r="E6" t="n">
-        <v>1.645161290322581</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.48780487804878</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45373</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.335570469798658</v>
-      </c>
-      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,6 +589,78 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,95 +471,95 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>1.327868852459016</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.645161290322581</v>
+        <v>1.21978021978022</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4.1</v>
+        <v>2.45</v>
       </c>
       <c r="E4" t="n">
-        <v>1.253164556962025</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.212765957446809</v>
+        <v>2.24</v>
       </c>
       <c r="E5" t="n">
-        <v>4.6</v>
+        <v>1.675675675675676</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -567,97 +567,49 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.85</v>
+        <v>2.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1.444444444444444</v>
+        <v>1.704225352112676</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.37</v>
+        <v>2.3</v>
       </c>
       <c r="E7" t="n">
-        <v>3.2</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,119 +471,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.142857142857143</v>
       </c>
-      <c r="E2" t="n">
-        <v>6</v>
-      </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4.5</v>
+        <v>1.148148148148148</v>
       </c>
       <c r="E3" t="n">
-        <v>1.21978021978022</v>
+        <v>5.9</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.45</v>
+        <v>10.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.571428571428571</v>
+        <v>1.060606060606061</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.24</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="E5" t="n">
-        <v>1.675675675675676</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.2</v>
+        <v>1.125</v>
       </c>
       <c r="E6" t="n">
-        <v>1.704225352112676</v>
+        <v>6.5</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,25 +591,145 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45375</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.133333333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.289855072463768</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.253164556962025</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>IND</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.645161290322581</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.142857142857143</v>
+        <v>1.24390243902439</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -495,23 +495,23 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.148148148148148</v>
+        <v>1.819672131147541</v>
       </c>
       <c r="E3" t="n">
-        <v>5.9</v>
+        <v>2.02</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,217 +519,49 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10.5</v>
+        <v>1.8</v>
       </c>
       <c r="E4" t="n">
-        <v>1.060606060606061</v>
+        <v>2.05</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.408163265306122</v>
+        <v>1.980392156862745</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1.847457627118644</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.125</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.133333333333333</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1.289855072463768</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.253164556962025</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,47 +471,47 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="E2" t="n">
-        <v>1.24390243902439</v>
+        <v>1.520833333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.819672131147541</v>
+        <v>1.192307692307692</v>
       </c>
       <c r="E3" t="n">
-        <v>2.02</v>
+        <v>4.9</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -519,23 +519,23 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.8</v>
+        <v>1.645161290322581</v>
       </c>
       <c r="E4" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -543,25 +543,217 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.980392156862745</v>
+        <v>1.408163265306122</v>
       </c>
       <c r="E5" t="n">
-        <v>1.847457627118644</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.704225352112676</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.387596899224806</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.068965517241379</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.540540540540541</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.359712230215827</v>
+      </c>
+      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Predictions/ModelsPredictions/RNN.xlsx
+++ b/Predictions/ModelsPredictions/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,23 +471,23 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.6</v>
+        <v>1.074074074074074</v>
       </c>
       <c r="E2" t="n">
-        <v>1.520833333333333</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,265 +495,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.192307692307692</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="E3" t="n">
-        <v>4.9</v>
+        <v>1.952380952380952</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.645161290322581</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.408163265306122</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.181818181818182</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1.571428571428571</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1.704225352112676</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.387596899224806</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.068965517241379</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SAS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.540540540540541</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.359712230215827</v>
-      </c>
-      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
